--- a/results/mp/deberta/corona/confidence/42/stop-words-topk-masking-0.15/root_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-topk-masking-0.15/root_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="1039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="1039">
   <si>
     <t>anchor score</t>
   </si>
@@ -82,805 +82,805 @@
     <t>killed</t>
   </si>
   <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>accused</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>chaos</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>suffering</t>
+  </si>
+  <si>
+    <t>threats</t>
+  </si>
+  <si>
+    <t>threat</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>killing</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>complaints</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>kills</t>
+  </si>
+  <si>
+    <t>destroy</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>desperate</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>crime</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>unemployment</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>madness</t>
+  </si>
+  <si>
+    <t>struggle</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>hurt</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>risks</t>
+  </si>
+  <si>
+    <t>failure</t>
+  </si>
+  <si>
+    <t>warned</t>
+  </si>
+  <si>
+    <t>scare</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>banned</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>threatening</t>
+  </si>
+  <si>
+    <t>depression</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>fighting</t>
+  </si>
+  <si>
+    <t>disgrace</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>bastards</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>blame</t>
+  </si>
+  <si>
+    <t>hardship</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>warns</t>
+  </si>
+  <si>
+    <t>losses</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>misleading</t>
+  </si>
+  <si>
+    <t>allegedly</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>stolen</t>
+  </si>
+  <si>
+    <t>stressed</t>
+  </si>
+  <si>
+    <t>stuck</t>
+  </si>
+  <si>
+    <t>infection</t>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>avoiding</t>
+  </si>
+  <si>
+    <t>police</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>deaths</t>
+  </si>
+  <si>
+    <t>cal</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>fda</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>dona</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>fraudulent</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>washington</t>
+  </si>
+  <si>
+    <t>fox</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>losing</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>caused</t>
+  </si>
+  <si>
+    <t>lose</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>delayed</t>
+  </si>
+  <si>
+    <t>mis</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>chaos</t>
-  </si>
-  <si>
-    <t>disgusting</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>suffering</t>
-  </si>
-  <si>
-    <t>threats</t>
-  </si>
-  <si>
-    <t>threat</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>killing</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>disruption</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>complaints</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>kills</t>
-  </si>
-  <si>
-    <t>destroy</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>desperate</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>crime</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>unemployment</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>madness</t>
-  </si>
-  <si>
-    <t>struggle</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>attack</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>hurt</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>dead</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>loss</t>
-  </si>
-  <si>
-    <t>risks</t>
-  </si>
-  <si>
-    <t>failure</t>
-  </si>
-  <si>
-    <t>warned</t>
-  </si>
-  <si>
-    <t>scare</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>banned</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>cause</t>
-  </si>
-  <si>
-    <t>threatening</t>
-  </si>
-  <si>
-    <t>depression</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>fighting</t>
-  </si>
-  <si>
-    <t>disgrace</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>bastards</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>recipe</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>debt</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>blame</t>
-  </si>
-  <si>
-    <t>hardship</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>warns</t>
-  </si>
-  <si>
-    <t>losses</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>misleading</t>
-  </si>
-  <si>
-    <t>allegedly</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>stolen</t>
-  </si>
-  <si>
-    <t>stressed</t>
-  </si>
-  <si>
-    <t>stuck</t>
-  </si>
-  <si>
-    <t>infection</t>
-  </si>
-  <si>
-    <t>damage</t>
-  </si>
-  <si>
-    <t>avoiding</t>
-  </si>
-  <si>
-    <t>police</t>
-  </si>
-  <si>
-    <t>battle</t>
-  </si>
-  <si>
-    <t>deaths</t>
-  </si>
-  <si>
-    <t>cal</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>delay</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>fda</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>certainly</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>become</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>sales</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>world</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>dona</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>fraudulent</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>washington</t>
-  </si>
-  <si>
-    <t>fox</t>
-  </si>
-  <si>
-    <t>take</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>losing</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>caused</t>
-  </si>
-  <si>
-    <t>lose</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>delayed</t>
-  </si>
-  <si>
-    <t>mis</t>
-  </si>
-  <si>
-    <t>cut</t>
   </si>
   <si>
     <t>san</t>
@@ -3496,10 +3496,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3557,7 +3557,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02983666381785112</v>
+        <v>0.03025782223869063</v>
       </c>
       <c r="C3">
         <v>192</v>
@@ -3607,7 +3607,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.02407435459852642</v>
+        <v>0.02441417533811526</v>
       </c>
       <c r="C4">
         <v>125</v>
@@ -3657,7 +3657,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01139406420252107</v>
+        <v>0.01155489673110983</v>
       </c>
       <c r="C5">
         <v>28</v>
@@ -3707,7 +3707,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01032674765246777</v>
+        <v>0.0104725145103267</v>
       </c>
       <c r="C6">
         <v>23</v>
@@ -3728,7 +3728,7 @@
         <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K6">
         <v>0.0076817928244634</v>
@@ -3757,7 +3757,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01009975844676811</v>
+        <v>0.01024232124615711</v>
       </c>
       <c r="C7">
         <v>22</v>
@@ -3778,7 +3778,7 @@
         <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K7">
         <v>0.007364302124053005</v>
@@ -3807,7 +3807,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01009975844676811</v>
+        <v>0.01024232124615711</v>
       </c>
       <c r="C8">
         <v>22</v>
@@ -3828,7 +3828,7 @@
         <v>53</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>287</v>
       </c>
       <c r="K8">
         <v>0.007306842451922556</v>
@@ -3837,19 +3837,19 @@
         <v>190</v>
       </c>
       <c r="M8">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="N8">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3857,7 +3857,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.009135575247587038</v>
+        <v>0.009264528151578679</v>
       </c>
       <c r="C9">
         <v>18</v>
@@ -3878,7 +3878,7 @@
         <v>1725</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K9">
         <v>0.00722951919155525</v>
@@ -3907,7 +3907,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.008878183300069911</v>
+        <v>0.00900350299671589</v>
       </c>
       <c r="C10">
         <v>17</v>
@@ -3928,7 +3928,7 @@
         <v>60</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>288</v>
       </c>
       <c r="K10">
         <v>0.006620872764970345</v>
@@ -3937,19 +3937,19 @@
         <v>156</v>
       </c>
       <c r="M10">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="N10">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3957,7 +3957,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.008056820062877543</v>
+        <v>0.008170545834478035</v>
       </c>
       <c r="C11">
         <v>14</v>
@@ -3978,7 +3978,7 @@
         <v>135</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K11">
         <v>0.006535438569352029</v>
@@ -4007,7 +4007,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.007763746075890257</v>
+        <v>0.007873334971521564</v>
       </c>
       <c r="C12">
         <v>13</v>
@@ -4028,7 +4028,7 @@
         <v>2833</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K12">
         <v>0.006181905999703191</v>
@@ -4057,7 +4057,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.007459165954462781</v>
+        <v>0.007564455559672658</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -4078,7 +4078,7 @@
         <v>19</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K13">
         <v>0.005950291135632477</v>
@@ -4107,7 +4107,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.007459165954462781</v>
+        <v>0.007564455559672658</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -4128,7 +4128,7 @@
         <v>39</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K14">
         <v>0.005782643562032897</v>
@@ -4157,7 +4157,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.007459165954462781</v>
+        <v>0.007564455559672658</v>
       </c>
       <c r="C15">
         <v>12</v>
@@ -4207,7 +4207,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.007459165954462781</v>
+        <v>0.007564455559672658</v>
       </c>
       <c r="C16">
         <v>12</v>
@@ -4228,7 +4228,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K16">
         <v>0.005483335657887877</v>
@@ -4257,28 +4257,28 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.007459165954462781</v>
+        <v>0.007564455559672658</v>
       </c>
       <c r="C17">
         <v>12</v>
       </c>
       <c r="D17">
-        <v>202</v>
+        <v>51</v>
       </c>
       <c r="E17">
-        <v>0.9399999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="F17">
-        <v>0.06000000000000005</v>
+        <v>0.24</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>138</v>
+        <v>917</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K17">
         <v>0.005457652445697388</v>
@@ -4307,28 +4307,28 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.007459165954462781</v>
+        <v>0.007242414808248745</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="E18">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>917</v>
+        <v>4</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K18">
         <v>0.005431847797848232</v>
@@ -4357,13 +4357,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.007141607686055845</v>
+        <v>0.006905371575463469</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -4375,10 +4375,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K19">
         <v>0.005379867197330499</v>
@@ -4407,7 +4407,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.00680925575572303</v>
+        <v>0.006905371575463469</v>
       </c>
       <c r="C20">
         <v>10</v>
@@ -4425,7 +4425,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>290</v>
@@ -4457,7 +4457,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.00680925575572303</v>
+        <v>0.006905371575463469</v>
       </c>
       <c r="C21">
         <v>10</v>
@@ -4475,10 +4475,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K21">
         <v>0.005193839911630585</v>
@@ -4507,13 +4507,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.00680925575572303</v>
+        <v>0.006551010680474955</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -4525,10 +4525,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K22">
         <v>0.005139452654667697</v>
@@ -4557,7 +4557,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.006459827207608767</v>
+        <v>0.006551010680474955</v>
       </c>
       <c r="C23">
         <v>9</v>
@@ -4575,10 +4575,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K23">
         <v>0.004972723124741906</v>
@@ -4607,28 +4607,28 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.006459827207608767</v>
+        <v>0.006551010680474955</v>
       </c>
       <c r="C24">
         <v>9</v>
       </c>
       <c r="D24">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>535</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K24">
         <v>0.004711579119997988</v>
@@ -4657,28 +4657,28 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.006459827207608767</v>
+        <v>0.006176352101052454</v>
       </c>
       <c r="C25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25">
-        <v>115</v>
+        <v>8</v>
       </c>
       <c r="E25">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>535</v>
+        <v>4</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K25">
         <v>0.004529125687124733</v>
@@ -4707,28 +4707,28 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.006459827207608767</v>
+        <v>0.006176352101052454</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26">
-        <v>165</v>
+        <v>8</v>
       </c>
       <c r="E26">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K26">
         <v>0.004529125687124733</v>
@@ -4757,7 +4757,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.006090383498391359</v>
+        <v>0.006176352101052454</v>
       </c>
       <c r="C27">
         <v>8</v>
@@ -4775,10 +4775,10 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K27">
         <v>0.004273754992681399</v>
@@ -4807,7 +4807,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.006090383498391359</v>
+        <v>0.006176352101052454</v>
       </c>
       <c r="C28">
         <v>8</v>
@@ -4825,10 +4825,10 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K28">
         <v>0.004240752529732336</v>
@@ -4857,7 +4857,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.006090383498391359</v>
+        <v>0.006176352101052454</v>
       </c>
       <c r="C29">
         <v>8</v>
@@ -4875,10 +4875,10 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K29">
         <v>0.004106090980760077</v>
@@ -4907,7 +4907,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.006090383498391359</v>
+        <v>0.006176352101052454</v>
       </c>
       <c r="C30">
         <v>8</v>
@@ -4925,10 +4925,10 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K30">
         <v>0.004002122435054341</v>
@@ -4957,13 +4957,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.006090383498391359</v>
+        <v>0.005777448365554917</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -4975,10 +4975,10 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K31">
         <v>0.003931282811893507</v>
@@ -5007,13 +5007,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.006090383498391359</v>
+        <v>0.005777448365554917</v>
       </c>
       <c r="C32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -5025,7 +5025,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>291</v>
@@ -5057,28 +5057,28 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.005697032101260537</v>
+        <v>0.005777448365554917</v>
       </c>
       <c r="C33">
         <v>7</v>
       </c>
       <c r="D33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K33">
         <v>0.003748331088884676</v>
@@ -5107,7 +5107,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.005697032101260537</v>
+        <v>0.005777448365554917</v>
       </c>
       <c r="C34">
         <v>7</v>
@@ -5125,10 +5125,10 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K34">
         <v>0.003555979099588388</v>
@@ -5157,28 +5157,28 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.005697032101260537</v>
+        <v>0.005777448365554917</v>
       </c>
       <c r="C35">
         <v>7</v>
       </c>
       <c r="D35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E35">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K35">
         <v>0.003435402188914055</v>
@@ -5207,7 +5207,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.005697032101260537</v>
+        <v>0.005777448365554917</v>
       </c>
       <c r="C36">
         <v>7</v>
@@ -5225,10 +5225,10 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K36">
         <v>0.003394258163510473</v>
@@ -5257,7 +5257,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.005697032101260537</v>
+        <v>0.005777448365554917</v>
       </c>
       <c r="C37">
         <v>7</v>
@@ -5275,10 +5275,10 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K37">
         <v>0.003352609246768777</v>
@@ -5307,25 +5307,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005697032101260537</v>
+        <v>0.005777448365554917</v>
       </c>
       <c r="C38">
         <v>7</v>
       </c>
       <c r="D38">
-        <v>7</v>
+        <v>143</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>19</v>
+        <v>275</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>292</v>
@@ -5357,13 +5357,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.005697032101260537</v>
+        <v>0.005348877822228816</v>
       </c>
       <c r="C39">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D39">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -5375,10 +5375,10 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K39">
         <v>0.003310436382485172</v>
@@ -5407,28 +5407,28 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.005697032101260537</v>
+        <v>0.005348877822228816</v>
       </c>
       <c r="C40">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D40">
-        <v>143</v>
+        <v>6</v>
       </c>
       <c r="E40">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K40">
         <v>0.003267719284676015</v>
@@ -5457,7 +5457,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.005274426828396458</v>
+        <v>0.005348877822228816</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -5475,10 +5475,10 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K41">
         <v>0.003267719284676015</v>
@@ -5507,7 +5507,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.005274426828396458</v>
+        <v>0.005348877822228816</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -5525,7 +5525,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>246</v>
+        <v>8</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>293</v>
@@ -5557,7 +5557,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.005274426828396458</v>
+        <v>0.005348877822228816</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -5575,10 +5575,10 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K43">
         <v>0.003180564397299252</v>
@@ -5607,7 +5607,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.005274426828396458</v>
+        <v>0.005348877822228816</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -5625,7 +5625,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>294</v>
@@ -5657,7 +5657,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.005274426828396458</v>
+        <v>0.005348877822228816</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -5675,10 +5675,10 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K45">
         <v>0.003090952999851596</v>
@@ -5707,25 +5707,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.005274426828396458</v>
+        <v>0.005348877822228816</v>
       </c>
       <c r="C46">
         <v>6</v>
       </c>
       <c r="D46">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>4</v>
+        <v>264</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>295</v>
@@ -5757,25 +5757,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.005274426828396458</v>
+        <v>0.005348877822228816</v>
       </c>
       <c r="C47">
         <v>6</v>
       </c>
       <c r="D47">
-        <v>6</v>
+        <v>158</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>296</v>
@@ -5807,28 +5807,28 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.005274426828396458</v>
+        <v>0.005348877822228816</v>
       </c>
       <c r="C48">
         <v>6</v>
       </c>
       <c r="D48">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E48">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F48">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K48">
         <v>0.00295143885082812</v>
@@ -5857,25 +5857,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.005274426828396458</v>
+        <v>0.005348877822228816</v>
       </c>
       <c r="C49">
         <v>6</v>
       </c>
       <c r="D49">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="E49">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F49">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>137</v>
+        <v>735</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>297</v>
@@ -5907,28 +5907,28 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.005274426828396458</v>
+        <v>0.004882835067623052</v>
       </c>
       <c r="C50">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D50">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="E50">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>256</v>
+        <v>2</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K50">
         <v>0.00295143885082812</v>
@@ -5957,25 +5957,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.005274426828396458</v>
+        <v>0.004882835067623052</v>
       </c>
       <c r="C51">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D51">
-        <v>132</v>
+        <v>5</v>
       </c>
       <c r="E51">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>735</v>
+        <v>25</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>298</v>
@@ -6007,7 +6007,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.004814870919705284</v>
+        <v>0.004882835067623052</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -6028,7 +6028,7 @@
         <v>2</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K52">
         <v>0.002854643909860149</v>
@@ -6057,7 +6057,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.004814870919705284</v>
+        <v>0.004882835067623052</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -6075,10 +6075,10 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K53">
         <v>0.002854643909860149</v>
@@ -6107,7 +6107,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004814870919705284</v>
+        <v>0.004882835067623052</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -6125,7 +6125,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>299</v>
@@ -6157,7 +6157,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.004814870919705284</v>
+        <v>0.004882835067623052</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -6175,10 +6175,10 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K55">
         <v>0.002804994141359951</v>
@@ -6207,7 +6207,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.004814870919705284</v>
+        <v>0.004882835067623052</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -6225,10 +6225,10 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K56">
         <v>0.002754449566433494</v>
@@ -6257,7 +6257,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.004814870919705284</v>
+        <v>0.004882835067623052</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -6275,7 +6275,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>300</v>
@@ -6307,7 +6307,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.004814870919705284</v>
+        <v>0.004882835067623052</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -6325,10 +6325,10 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>17</v>
+        <v>368</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K58">
         <v>0.002702959987677893</v>
@@ -6357,25 +6357,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.004814870919705284</v>
+        <v>0.004882835067623052</v>
       </c>
       <c r="C59">
         <v>5</v>
       </c>
       <c r="D59">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>5</v>
+        <v>317</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>301</v>
@@ -6407,28 +6407,28 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.004814870919705284</v>
+        <v>0.004882835067623052</v>
       </c>
       <c r="C60">
         <v>5</v>
       </c>
       <c r="D60">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>368</v>
+        <v>1068</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K60">
         <v>0.00265047033108271</v>
@@ -6457,28 +6457,28 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.004814870919705284</v>
+        <v>0.004882835067623052</v>
       </c>
       <c r="C61">
         <v>5</v>
       </c>
       <c r="D61">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="E61">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F61">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
       </c>
       <c r="H61">
-        <v>317</v>
+        <v>28</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K61">
         <v>0.002596919955815292</v>
@@ -6507,28 +6507,28 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.004814870919705284</v>
+        <v>0.004882835067623052</v>
       </c>
       <c r="C62">
         <v>5</v>
       </c>
       <c r="D62">
-        <v>93</v>
+        <v>198</v>
       </c>
       <c r="E62">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F62">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
       </c>
       <c r="H62">
-        <v>1068</v>
+        <v>696</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K62">
         <v>0.002542241833082312</v>
@@ -6557,28 +6557,28 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.004814870919705284</v>
+        <v>0.004367340453649971</v>
       </c>
       <c r="C63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="E63">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K63">
         <v>0.002542241833082312</v>
@@ -6607,25 +6607,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.004814870919705284</v>
+        <v>0.004367340453649971</v>
       </c>
       <c r="C64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64">
-        <v>198</v>
+        <v>4</v>
       </c>
       <c r="E64">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>696</v>
+        <v>7</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>302</v>
@@ -6657,7 +6657,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.004306551471739179</v>
+        <v>0.004367340453649971</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -6675,10 +6675,10 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K65">
         <v>0.002486361562370953</v>
@@ -6707,7 +6707,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.004306551471739179</v>
+        <v>0.004367340453649971</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -6725,7 +6725,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>303</v>
@@ -6757,7 +6757,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.004306551471739179</v>
+        <v>0.004367340453649971</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>304</v>
@@ -6807,7 +6807,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.004306551471739179</v>
+        <v>0.004367340453649971</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -6825,10 +6825,10 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K68">
         <v>0.002429196183884237</v>
@@ -6857,7 +6857,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.004306551471739179</v>
+        <v>0.004367340453649971</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -6875,7 +6875,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>305</v>
@@ -6907,7 +6907,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.004306551471739179</v>
+        <v>0.004367340453649971</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -6925,10 +6925,10 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K70">
         <v>0.002310626465208465</v>
@@ -6957,7 +6957,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.004306551471739179</v>
+        <v>0.004367340453649971</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -6975,7 +6975,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>306</v>
@@ -7007,7 +7007,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.004306551471739179</v>
+        <v>0.004367340453649971</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -7025,10 +7025,10 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K72">
         <v>0.002310626465208465</v>
@@ -7057,7 +7057,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.004306551471739179</v>
+        <v>0.004367340453649971</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -7075,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>307</v>
@@ -7107,7 +7107,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.004306551471739179</v>
+        <v>0.004367340453649971</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -7125,10 +7125,10 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K74">
         <v>0.002248998653330805</v>
@@ -7157,7 +7157,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.004306551471739179</v>
+        <v>0.004367340453649971</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -7175,10 +7175,10 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K75">
         <v>0.002248998653330805</v>
@@ -7207,7 +7207,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.004306551471739179</v>
+        <v>0.004367340453649971</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -7225,10 +7225,10 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K76">
         <v>0.002248998653330805</v>
@@ -7257,25 +7257,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.004306551471739179</v>
+        <v>0.004367340453649971</v>
       </c>
       <c r="C77">
         <v>4</v>
       </c>
       <c r="D77">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>308</v>
@@ -7307,28 +7307,28 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.004306551471739179</v>
+        <v>0.004367340453649971</v>
       </c>
       <c r="C78">
         <v>4</v>
       </c>
       <c r="D78">
-        <v>4</v>
+        <v>190</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78">
-        <v>27</v>
+        <v>711</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K78">
         <v>0.002185633826523965</v>
@@ -7357,28 +7357,28 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.004306551471739179</v>
+        <v>0.004367340453649971</v>
       </c>
       <c r="C79">
         <v>4</v>
       </c>
       <c r="D79">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="E79">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="F79">
-        <v>0.05000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G79" t="b">
         <v>1</v>
       </c>
       <c r="H79">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K79">
         <v>0.002185633826523965</v>
@@ -7407,25 +7407,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.004306551471739179</v>
+        <v>0.004367340453649971</v>
       </c>
       <c r="C80">
         <v>4</v>
       </c>
       <c r="D80">
-        <v>190</v>
+        <v>64</v>
       </c>
       <c r="E80">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F80">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
       </c>
       <c r="H80">
-        <v>711</v>
+        <v>30</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>309</v>
@@ -7457,25 +7457,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.004306551471739179</v>
+        <v>0.003782227779836329</v>
       </c>
       <c r="C81">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E81">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>310</v>
@@ -7507,28 +7507,28 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.004306551471739179</v>
+        <v>0.003782227779836329</v>
       </c>
       <c r="C82">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="E82">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K82">
         <v>0.002120376264866168</v>
@@ -7557,7 +7557,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.00372958297723139</v>
+        <v>0.003782227779836329</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -7575,7 +7575,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>311</v>
@@ -7607,7 +7607,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.00372958297723139</v>
+        <v>0.003782227779836329</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -7625,10 +7625,10 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K84">
         <v>0.002053045490380039</v>
@@ -7657,7 +7657,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.00372958297723139</v>
+        <v>0.003782227779836329</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -7675,10 +7675,10 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K85">
         <v>0.002053045490380039</v>
@@ -7707,7 +7707,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.00372958297723139</v>
+        <v>0.003782227779836329</v>
       </c>
       <c r="C86">
         <v>3</v>
@@ -7725,7 +7725,7 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>312</v>
@@ -7757,7 +7757,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.00372958297723139</v>
+        <v>0.003782227779836329</v>
       </c>
       <c r="C87">
         <v>3</v>
@@ -7775,7 +7775,7 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>313</v>
@@ -7807,7 +7807,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.00372958297723139</v>
+        <v>0.003782227779836329</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -7825,10 +7825,10 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K88">
         <v>0.001983430378544159</v>
@@ -7857,7 +7857,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.00372958297723139</v>
+        <v>0.003782227779836329</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -7875,10 +7875,10 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K89">
         <v>0.001983430378544159</v>
@@ -7907,28 +7907,28 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.00372958297723139</v>
+        <v>0.003782227779836329</v>
       </c>
       <c r="C90">
         <v>3</v>
       </c>
       <c r="D90">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="G90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K90">
         <v>0.001983430378544159</v>
@@ -7957,25 +7957,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.00372958297723139</v>
+        <v>0.003782227779836329</v>
       </c>
       <c r="C91">
         <v>3</v>
       </c>
       <c r="D91">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>314</v>
@@ -8007,25 +8007,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.00372958297723139</v>
+        <v>0.003782227779836329</v>
       </c>
       <c r="C92">
         <v>3</v>
       </c>
       <c r="D92">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E92">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="G92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>315</v>
@@ -8057,25 +8057,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.00372958297723139</v>
+        <v>0.003782227779836329</v>
       </c>
       <c r="C93">
         <v>3</v>
       </c>
       <c r="D93">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="E93">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="F93">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>316</v>
@@ -8107,25 +8107,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.00372958297723139</v>
+        <v>0.003782227779836329</v>
       </c>
       <c r="C94">
         <v>3</v>
       </c>
       <c r="D94">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>317</v>
@@ -8157,25 +8157,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.00372958297723139</v>
+        <v>0.003782227779836329</v>
       </c>
       <c r="C95">
         <v>3</v>
       </c>
       <c r="D95">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="E95">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>318</v>
@@ -8207,25 +8207,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.00372958297723139</v>
+        <v>0.003782227779836329</v>
       </c>
       <c r="C96">
         <v>3</v>
       </c>
       <c r="D96">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="E96">
-        <v>0.57</v>
+        <v>0.97</v>
       </c>
       <c r="F96">
-        <v>0.43</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>319</v>
@@ -8257,13 +8257,13 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.00372958297723139</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -8275,7 +8275,7 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>320</v>
@@ -8307,25 +8307,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.00372958297723139</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98">
-        <v>106</v>
+        <v>2</v>
       </c>
       <c r="E98">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>321</v>
@@ -8357,7 +8357,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -8375,7 +8375,7 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>322</v>
@@ -8407,7 +8407,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C100">
         <v>2</v>
@@ -8425,10 +8425,10 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>4</v>
+        <v>164</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K100">
         <v>0.001911281336562945</v>
@@ -8457,7 +8457,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C101">
         <v>2</v>
@@ -8475,10 +8475,10 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K101">
         <v>0.001911281336562945</v>
@@ -8507,7 +8507,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C102">
         <v>2</v>
@@ -8525,7 +8525,7 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>164</v>
+        <v>5</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>323</v>
@@ -8557,7 +8557,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C103">
         <v>2</v>
@@ -8607,7 +8607,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C104">
         <v>2</v>
@@ -8625,7 +8625,7 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>325</v>
@@ -8657,7 +8657,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C105">
         <v>2</v>
@@ -8675,7 +8675,7 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>326</v>
@@ -8707,7 +8707,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C106">
         <v>2</v>
@@ -8757,7 +8757,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C107">
         <v>2</v>
@@ -8775,10 +8775,10 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K107">
         <v>0.001836299710955663</v>
@@ -8807,25 +8807,25 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C108">
         <v>2</v>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>328</v>
@@ -8857,28 +8857,28 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C109">
         <v>2</v>
       </c>
       <c r="D109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K109">
         <v>0.00175812312123408</v>
@@ -8907,25 +8907,25 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C110">
         <v>2</v>
       </c>
       <c r="D110">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E110">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="F110">
-        <v>0.6699999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="G110" t="b">
         <v>1</v>
       </c>
       <c r="H110">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>329</v>
@@ -8957,25 +8957,25 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C111">
         <v>2</v>
       </c>
       <c r="D111">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E111">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="F111">
-        <v>0.6699999999999999</v>
+        <v>0.29</v>
       </c>
       <c r="G111" t="b">
         <v>1</v>
       </c>
       <c r="H111">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>330</v>
@@ -9007,28 +9007,28 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C112">
         <v>2</v>
       </c>
       <c r="D112">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="E112">
-        <v>0.5</v>
+        <v>0.96</v>
       </c>
       <c r="F112">
-        <v>0.5</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G112" t="b">
         <v>1</v>
       </c>
       <c r="H112">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K112">
         <v>0.00175812312123408</v>
@@ -9057,25 +9057,25 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C113">
         <v>2</v>
       </c>
       <c r="D113">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E113">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="F113">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="G113" t="b">
         <v>1</v>
       </c>
       <c r="H113">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>331</v>
@@ -9107,25 +9107,25 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C114">
         <v>2</v>
       </c>
       <c r="D114">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="E114">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="F114">
-        <v>0.04000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G114" t="b">
         <v>1</v>
       </c>
       <c r="H114">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>332</v>
@@ -9157,25 +9157,25 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C115">
         <v>2</v>
       </c>
       <c r="D115">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="E115">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="F115">
-        <v>0.33</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G115" t="b">
         <v>1</v>
       </c>
       <c r="H115">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>333</v>
@@ -9207,25 +9207,25 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C116">
         <v>2</v>
       </c>
       <c r="D116">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E116">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="F116">
-        <v>0.11</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G116" t="b">
         <v>1</v>
       </c>
       <c r="H116">
-        <v>108</v>
+        <v>197</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>334</v>
@@ -9257,25 +9257,25 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C117">
         <v>2</v>
       </c>
       <c r="D117">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E117">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F117">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G117" t="b">
         <v>1</v>
       </c>
       <c r="H117">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>335</v>
@@ -9307,25 +9307,25 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C118">
         <v>2</v>
       </c>
       <c r="D118">
-        <v>40</v>
+        <v>212</v>
       </c>
       <c r="E118">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F118">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G118" t="b">
         <v>1</v>
       </c>
       <c r="H118">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>336</v>
@@ -9357,25 +9357,25 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C119">
         <v>2</v>
       </c>
       <c r="D119">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E119">
-        <v>0.91</v>
+        <v>0.8</v>
       </c>
       <c r="F119">
-        <v>0.08999999999999997</v>
+        <v>0.2</v>
       </c>
       <c r="G119" t="b">
         <v>1</v>
       </c>
       <c r="H119">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>337</v>
@@ -9407,25 +9407,25 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C120">
         <v>2</v>
       </c>
       <c r="D120">
-        <v>212</v>
+        <v>8</v>
       </c>
       <c r="E120">
-        <v>0.99</v>
+        <v>0.75</v>
       </c>
       <c r="F120">
-        <v>0.01000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="G120" t="b">
         <v>1</v>
       </c>
       <c r="H120">
-        <v>171</v>
+        <v>48</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>338</v>
@@ -9457,25 +9457,25 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C121">
         <v>2</v>
       </c>
       <c r="D121">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E121">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F121">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
       </c>
       <c r="H121">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>339</v>
@@ -9507,25 +9507,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C122">
         <v>2</v>
       </c>
       <c r="D122">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E122">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F122">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G122" t="b">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>340</v>
@@ -9557,28 +9557,28 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C123">
         <v>2</v>
       </c>
       <c r="D123">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="E123">
-        <v>0.75</v>
+        <v>0.98</v>
       </c>
       <c r="F123">
-        <v>0.25</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K123">
         <v>0.001676304623384388</v>
@@ -9607,25 +9607,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C124">
         <v>2</v>
       </c>
       <c r="D124">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E124">
-        <v>0.9399999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="F124">
-        <v>0.06000000000000005</v>
+        <v>0.15</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>341</v>
@@ -9657,28 +9657,28 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C125">
         <v>2</v>
       </c>
       <c r="D125">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="E125">
-        <v>0.98</v>
+        <v>0.78</v>
       </c>
       <c r="F125">
-        <v>0.02000000000000002</v>
+        <v>0.22</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
       </c>
       <c r="H125">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K125">
         <v>0.001676304623384388</v>
@@ -9707,28 +9707,28 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C126">
         <v>2</v>
       </c>
       <c r="D126">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E126">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
       <c r="F126">
-        <v>0.15</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K126">
         <v>0.001676304623384388</v>
@@ -9757,25 +9757,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C127">
         <v>2</v>
       </c>
       <c r="D127">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="E127">
-        <v>0.78</v>
+        <v>0.95</v>
       </c>
       <c r="F127">
-        <v>0.22</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>162</v>
+        <v>503</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>342</v>
@@ -9807,25 +9807,25 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C128">
         <v>2</v>
       </c>
       <c r="D128">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="E128">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F128">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
       </c>
       <c r="H128">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>343</v>
@@ -9857,25 +9857,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C129">
         <v>2</v>
       </c>
       <c r="D129">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E129">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="F129">
-        <v>0.05000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>503</v>
+        <v>98</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>344</v>
@@ -9907,25 +9907,25 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C130">
         <v>2</v>
       </c>
       <c r="D130">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="E130">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H130">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>345</v>
@@ -9957,25 +9957,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C131">
         <v>2</v>
       </c>
       <c r="D131">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E131">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="F131">
-        <v>0.09999999999999998</v>
+        <v>0.4</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>346</v>
@@ -10007,25 +10007,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C132">
         <v>2</v>
       </c>
       <c r="D132">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>347</v>
@@ -10057,28 +10057,28 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C133">
         <v>2</v>
       </c>
       <c r="D133">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E133">
-        <v>0.6</v>
+        <v>0.92</v>
       </c>
       <c r="F133">
-        <v>0.4</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>96</v>
+        <v>200</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K133">
         <v>0.001590282198649626</v>
@@ -10107,25 +10107,25 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C134">
         <v>2</v>
       </c>
       <c r="D134">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="E134">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134">
-        <v>171</v>
+        <v>24</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>348</v>
@@ -10157,25 +10157,25 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.003045191749195679</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D135">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E135">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>349</v>
@@ -10207,13 +10207,13 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.003045191749195679</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -10225,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>350</v>
@@ -10257,7 +10257,7 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -10275,7 +10275,7 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>351</v>
@@ -10307,7 +10307,7 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -10325,10 +10325,10 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K138">
         <v>0.001590282198649626</v>
@@ -10357,7 +10357,7 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -10375,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>352</v>
@@ -10407,7 +10407,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -10425,7 +10425,7 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>353</v>
@@ -10457,7 +10457,7 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -10475,10 +10475,10 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K141">
         <v>0.001590282198649626</v>
@@ -10507,7 +10507,7 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -10525,7 +10525,7 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>354</v>
@@ -10557,7 +10557,7 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -10575,7 +10575,7 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>355</v>
@@ -10607,7 +10607,7 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -10625,7 +10625,7 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>356</v>
@@ -10657,7 +10657,7 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -10675,7 +10675,7 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>357</v>
@@ -10707,7 +10707,7 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -10725,10 +10725,10 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K146">
         <v>0.00149933243555387</v>
@@ -10757,7 +10757,7 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>358</v>
@@ -10807,7 +10807,7 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -10825,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>359</v>
@@ -10857,7 +10857,7 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -10875,7 +10875,7 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>360</v>
@@ -10907,7 +10907,7 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="H150">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>361</v>
@@ -10957,7 +10957,7 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -10975,10 +10975,10 @@
         <v>0</v>
       </c>
       <c r="H151">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K151">
         <v>0.00149933243555387</v>
@@ -11007,7 +11007,7 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -11025,7 +11025,7 @@
         <v>0</v>
       </c>
       <c r="H152">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>362</v>
@@ -11057,7 +11057,7 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>363</v>
@@ -11107,7 +11107,7 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -11125,7 +11125,7 @@
         <v>0</v>
       </c>
       <c r="H154">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>364</v>
@@ -11157,28 +11157,28 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F155">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H155">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K155">
         <v>0.00149933243555387</v>
@@ -11207,7 +11207,7 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -11225,7 +11225,7 @@
         <v>0</v>
       </c>
       <c r="H156">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>365</v>
@@ -11257,28 +11257,28 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E157">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H157">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K157">
         <v>0.00149933243555387</v>
@@ -11307,7 +11307,7 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -11325,10 +11325,10 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K158">
         <v>0.00149933243555387</v>
@@ -11357,7 +11357,7 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -11375,10 +11375,10 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K159">
         <v>0.00149933243555387</v>
@@ -11407,7 +11407,7 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -11425,10 +11425,10 @@
         <v>0</v>
       </c>
       <c r="H160">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K160">
         <v>0.00149933243555387</v>
@@ -11457,25 +11457,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H161">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>366</v>
@@ -11507,28 +11507,28 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H162">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K162">
         <v>0.001402497070679976</v>
@@ -11557,28 +11557,28 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E163">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H163">
         <v>15</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K163">
         <v>0.001402497070679976</v>
@@ -11607,28 +11607,28 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E164">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K164">
         <v>0.001402497070679976</v>
@@ -11657,22 +11657,22 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H165">
         <v>15</v>
@@ -11707,28 +11707,28 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H166">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K166">
         <v>0.001402497070679976</v>
@@ -11757,7 +11757,7 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -11775,7 +11775,7 @@
         <v>1</v>
       </c>
       <c r="H167">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>368</v>
@@ -11807,28 +11807,28 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E168">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H168">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K168">
         <v>0.001402497070679976</v>
@@ -11857,25 +11857,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E169">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="F169">
-        <v>0.25</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>369</v>
@@ -11907,7 +11907,7 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         <v>0</v>
       </c>
       <c r="H170">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>370</v>
@@ -11957,25 +11957,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E171">
-        <v>0.91</v>
+        <v>0.5</v>
       </c>
       <c r="F171">
-        <v>0.08999999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>371</v>
@@ -12007,7 +12007,7 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -12025,10 +12025,10 @@
         <v>0</v>
       </c>
       <c r="H172">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K172">
         <v>0.001402497070679976</v>
@@ -12057,25 +12057,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E173">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F173">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>372</v>
@@ -12107,7 +12107,7 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -12125,7 +12125,7 @@
         <v>0</v>
       </c>
       <c r="H174">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>373</v>
@@ -12157,28 +12157,28 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E175">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F175">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K175">
         <v>0.001402497070679976</v>
@@ -12207,25 +12207,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176">
-        <v>24</v>
+        <v>334</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>374</v>
@@ -12257,25 +12257,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E177">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F177">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>375</v>
@@ -12307,28 +12307,28 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E178">
-        <v>0.96</v>
+        <v>0.75</v>
       </c>
       <c r="F178">
-        <v>0.04000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>334</v>
+        <v>41</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K178">
         <v>0.001298459977907646</v>
@@ -12357,25 +12357,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E179">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F179">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>376</v>
@@ -12407,25 +12407,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E180">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F180">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>377</v>
@@ -12457,25 +12457,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E181">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H181">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>378</v>
@@ -12507,25 +12507,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="E182">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="F182">
-        <v>0.5</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>379</v>
@@ -12557,25 +12557,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F183">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H183">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>380</v>
@@ -12607,28 +12607,28 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E184">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H184">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K184">
         <v>0.001298459977907646</v>
@@ -12657,25 +12657,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E185">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="F185">
-        <v>0.2</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>381</v>
@@ -12707,22 +12707,22 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F186">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H186">
         <v>14</v>
@@ -12757,25 +12757,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E187">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H187">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>383</v>
@@ -12807,7 +12807,7 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -12825,7 +12825,7 @@
         <v>1</v>
       </c>
       <c r="H188">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>384</v>
@@ -12857,25 +12857,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F189">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H189">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>385</v>
@@ -12907,7 +12907,7 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -12925,7 +12925,7 @@
         <v>1</v>
       </c>
       <c r="H190">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>386</v>
@@ -12957,25 +12957,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E191">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H191">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>387</v>
@@ -13007,7 +13007,7 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -13025,7 +13025,7 @@
         <v>1</v>
       </c>
       <c r="H192">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>388</v>
@@ -13057,28 +13057,28 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F193">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H193">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K193">
         <v>0.001298459977907646</v>
@@ -13107,25 +13107,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E194">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="F194">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>389</v>
@@ -13157,25 +13157,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E195">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="F195">
-        <v>0.12</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>390</v>
@@ -13207,25 +13207,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E196">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="F196">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>391</v>
@@ -13257,25 +13257,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E197">
-        <v>0.95</v>
+        <v>0.67</v>
       </c>
       <c r="F197">
-        <v>0.05000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>392</v>
@@ -13307,25 +13307,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E198">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F198">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>393</v>
@@ -13357,19 +13357,19 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E199">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F199">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
@@ -13407,28 +13407,28 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E200">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F200">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K200">
         <v>0.001185326366529463</v>
@@ -13457,25 +13457,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E201">
-        <v>0.83</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F201">
-        <v>0.17</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>395</v>
@@ -13507,25 +13507,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="E202">
-        <v>0.8</v>
+        <v>0.99</v>
       </c>
       <c r="F202">
-        <v>0.2</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>19</v>
+        <v>461</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>396</v>
@@ -13557,25 +13557,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E203">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="F203">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>397</v>
@@ -13607,28 +13607,28 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="E204">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F204">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>461</v>
+        <v>102</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K204">
         <v>0.001185326366529463</v>
@@ -13657,25 +13657,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E205">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="F205">
-        <v>0.07999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>398</v>
@@ -13707,28 +13707,28 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E206">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F206">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H206">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K206">
         <v>0.001185326366529463</v>
@@ -13757,25 +13757,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E207">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F207">
-        <v>0.09999999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>399</v>
@@ -13807,25 +13807,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F208">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H208">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>400</v>
@@ -13857,25 +13857,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E209">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F209">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>401</v>
@@ -13907,25 +13907,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E210">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F210">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>402</v>
@@ -13957,25 +13957,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E211">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F211">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>403</v>
@@ -14007,25 +14007,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E212">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F212">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>404</v>
@@ -14057,25 +14057,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E213">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F213">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>405</v>
@@ -14107,25 +14107,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E214">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H214">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>406</v>
@@ -14157,25 +14157,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E215">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F215">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>407</v>
@@ -14207,25 +14207,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F216">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H216">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>408</v>
@@ -14257,25 +14257,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E217">
-        <v>0.75</v>
+        <v>0.97</v>
       </c>
       <c r="F217">
-        <v>0.25</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>409</v>
@@ -14307,25 +14307,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="E218">
-        <v>0.98</v>
+        <v>0.89</v>
       </c>
       <c r="F218">
-        <v>0.02000000000000002</v>
+        <v>0.11</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>410</v>
@@ -14357,25 +14357,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E219">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F219">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>411</v>
@@ -14407,25 +14407,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E220">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F220">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>412</v>
@@ -14457,25 +14457,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="E221">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="F221">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>413</v>
@@ -14507,25 +14507,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E222">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="F222">
-        <v>0.12</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>414</v>
@@ -14557,25 +14557,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>108</v>
+        <v>4</v>
       </c>
       <c r="E223">
-        <v>0.99</v>
+        <v>0.75</v>
       </c>
       <c r="F223">
-        <v>0.01000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>415</v>
@@ -14607,25 +14607,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E224">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F224">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>38</v>
+        <v>251</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>416</v>
@@ -14657,28 +14657,28 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E225">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F225">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K225">
         <v>0.001185326366529463</v>
@@ -14707,25 +14707,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
+        <v>18</v>
+      </c>
+      <c r="E226">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F226">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="G226" t="b">
+        <v>1</v>
+      </c>
+      <c r="H226">
         <v>30</v>
-      </c>
-      <c r="E226">
-        <v>0.97</v>
-      </c>
-      <c r="F226">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="G226" t="b">
-        <v>1</v>
-      </c>
-      <c r="H226">
-        <v>251</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>417</v>
@@ -14757,28 +14757,28 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E227">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="F227">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K227">
         <v>0.001185326366529463</v>
@@ -14807,25 +14807,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E228">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F228">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>418</v>
@@ -14857,25 +14857,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E229">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="F229">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>419</v>
@@ -14907,25 +14907,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E230">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="F230">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>420</v>
@@ -14957,28 +14957,28 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="E231">
-        <v>0.75</v>
+        <v>0.98</v>
       </c>
       <c r="F231">
-        <v>0.25</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="J231" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K231">
         <v>0.001185326366529463</v>
@@ -15007,25 +15007,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E232">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F232">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>421</v>
@@ -15057,28 +15057,28 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="E233">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="F233">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="J233" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K233">
         <v>0.001185326366529463</v>
@@ -15107,25 +15107,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E234">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F234">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>422</v>
@@ -15157,28 +15157,28 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E235">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F235">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="J235" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K235">
         <v>0.001185326366529463</v>
@@ -15207,7 +15207,7 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -15225,10 +15225,10 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="J236" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K236">
         <v>0.001185326366529463</v>
@@ -15257,25 +15257,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E237">
-        <v>0.89</v>
+        <v>0.5</v>
       </c>
       <c r="F237">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>423</v>
@@ -15307,25 +15307,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E238">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F238">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>424</v>
@@ -15357,25 +15357,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E239">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F239">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>425</v>
@@ -15407,25 +15407,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E240">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="F240">
-        <v>0.2</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>426</v>
@@ -15457,25 +15457,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E241">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="F241">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>427</v>
@@ -15507,25 +15507,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E242">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F242">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>428</v>
@@ -15557,25 +15557,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E243">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="F243">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>119</v>
+        <v>286</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>429</v>
@@ -15607,25 +15607,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E244">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="F244">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>430</v>
@@ -15657,25 +15657,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E245">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="F245">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>286</v>
+        <v>59</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>431</v>
@@ -15707,25 +15707,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E246">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="F246">
-        <v>0.04000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>432</v>
@@ -15757,7 +15757,7 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -15775,7 +15775,7 @@
         <v>1</v>
       </c>
       <c r="H247">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>433</v>
@@ -15807,28 +15807,28 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E248">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="F248">
-        <v>0.09999999999999998</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>50</v>
+        <v>252</v>
       </c>
       <c r="J248" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K248">
         <v>0.001060188132433084</v>
@@ -15857,25 +15857,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
       <c r="D249">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E249">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="F249">
-        <v>0.12</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>434</v>
@@ -15907,25 +15907,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="E250">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F250">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>252</v>
+        <v>103</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>435</v>
@@ -15957,28 +15957,28 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E251">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="F251">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="J251" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K251">
         <v>0.001060188132433084</v>
@@ -16007,25 +16007,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E252">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="F252">
-        <v>0.03000000000000003</v>
+        <v>0.11</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>436</v>
@@ -16057,25 +16057,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
       <c r="D253">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E253">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F253">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>437</v>
@@ -16107,25 +16107,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C254">
         <v>1</v>
       </c>
       <c r="D254">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E254">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="F254">
-        <v>0.11</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>438</v>
@@ -16157,25 +16157,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C255">
         <v>1</v>
       </c>
       <c r="D255">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E255">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F255">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>439</v>
@@ -16207,25 +16207,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C256">
         <v>1</v>
       </c>
       <c r="D256">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E256">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F256">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G256" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H256">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>440</v>
@@ -16257,28 +16257,28 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C257">
         <v>1</v>
       </c>
       <c r="D257">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E257">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F257">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H257">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="J257" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K257">
         <v>0.001060188132433084</v>
@@ -16307,25 +16307,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C258">
         <v>1</v>
       </c>
       <c r="D258">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E258">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F258">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H258">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>441</v>
@@ -16357,25 +16357,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
       <c r="D259">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E259">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F259">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H259">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>442</v>
@@ -16407,25 +16407,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C260">
         <v>1</v>
       </c>
       <c r="D260">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E260">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="F260">
-        <v>0.5</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>443</v>
@@ -16457,25 +16457,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C261">
         <v>1</v>
       </c>
       <c r="D261">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E261">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F261">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>444</v>
@@ -16507,25 +16507,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C262">
         <v>1</v>
       </c>
       <c r="D262">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E262">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F262">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G262" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H262">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>445</v>
@@ -16557,25 +16557,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C263">
         <v>1</v>
       </c>
       <c r="D263">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E263">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F263">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>446</v>
@@ -16607,25 +16607,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C264">
         <v>1</v>
       </c>
       <c r="D264">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E264">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F264">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G264" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H264">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>447</v>
@@ -16657,28 +16657,28 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C265">
         <v>1</v>
       </c>
       <c r="D265">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E265">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="F265">
-        <v>0.33</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="J265" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K265">
         <v>0.001060188132433084</v>
@@ -16707,25 +16707,25 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C266">
         <v>1</v>
       </c>
       <c r="D266">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E266">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F266">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>448</v>
@@ -16757,25 +16757,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C267">
         <v>1</v>
       </c>
       <c r="D267">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E267">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F267">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G267" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H267">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>449</v>
@@ -16807,25 +16807,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C268">
         <v>1</v>
       </c>
       <c r="D268">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E268">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F268">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G268" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H268">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>450</v>
@@ -16857,25 +16857,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C269">
         <v>1</v>
       </c>
       <c r="D269">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E269">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F269">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H269">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>451</v>
@@ -16907,25 +16907,25 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C270">
         <v>1</v>
       </c>
       <c r="D270">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E270">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F270">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G270" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H270">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>452</v>
@@ -16957,28 +16957,28 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C271">
         <v>1</v>
       </c>
       <c r="D271">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E271">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F271">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G271" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H271">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J271" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K271">
         <v>0.001060188132433084</v>
@@ -17007,28 +17007,28 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C272">
         <v>1</v>
       </c>
       <c r="D272">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E272">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F272">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G272" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H272">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J272" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K272">
         <v>0.001060188132433084</v>
@@ -17057,25 +17057,25 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C273">
         <v>1</v>
       </c>
       <c r="D273">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E273">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F273">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G273" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H273">
-        <v>34</v>
+        <v>234</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>453</v>
@@ -17107,7 +17107,7 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C274">
         <v>1</v>
@@ -17125,7 +17125,7 @@
         <v>0</v>
       </c>
       <c r="H274">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>454</v>
@@ -17157,25 +17157,25 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C275">
         <v>1</v>
       </c>
       <c r="D275">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E275">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F275">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G275" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H275">
-        <v>234</v>
+        <v>9</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>455</v>
@@ -17207,7 +17207,7 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C276">
         <v>1</v>
@@ -17225,7 +17225,7 @@
         <v>0</v>
       </c>
       <c r="H276">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>456</v>
@@ -17257,7 +17257,7 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C277">
         <v>1</v>
@@ -17275,7 +17275,7 @@
         <v>0</v>
       </c>
       <c r="H277">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>457</v>
@@ -17307,7 +17307,7 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C278">
         <v>1</v>
@@ -17325,7 +17325,7 @@
         <v>0</v>
       </c>
       <c r="H278">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>458</v>
@@ -17357,7 +17357,7 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C279">
         <v>1</v>
@@ -17375,10 +17375,10 @@
         <v>0</v>
       </c>
       <c r="H279">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J279" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K279">
         <v>0.001060188132433084</v>
@@ -17407,7 +17407,7 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C280">
         <v>1</v>
@@ -17425,7 +17425,7 @@
         <v>0</v>
       </c>
       <c r="H280">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>459</v>
@@ -17457,7 +17457,7 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C281">
         <v>1</v>
@@ -17475,7 +17475,7 @@
         <v>0</v>
       </c>
       <c r="H281">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>460</v>
@@ -17503,30 +17503,6 @@
       </c>
     </row>
     <row r="282" spans="1:17">
-      <c r="A282" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B282">
-        <v>0.002153275735869589</v>
-      </c>
-      <c r="C282">
-        <v>1</v>
-      </c>
-      <c r="D282">
-        <v>1</v>
-      </c>
-      <c r="E282">
-        <v>0</v>
-      </c>
-      <c r="F282">
-        <v>1</v>
-      </c>
-      <c r="G282" t="b">
-        <v>0</v>
-      </c>
-      <c r="H282">
-        <v>10</v>
-      </c>
       <c r="J282" s="1" t="s">
         <v>461</v>
       </c>
@@ -17553,30 +17529,6 @@
       </c>
     </row>
     <row r="283" spans="1:17">
-      <c r="A283" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B283">
-        <v>0.002153275735869589</v>
-      </c>
-      <c r="C283">
-        <v>1</v>
-      </c>
-      <c r="D283">
-        <v>1</v>
-      </c>
-      <c r="E283">
-        <v>0</v>
-      </c>
-      <c r="F283">
-        <v>1</v>
-      </c>
-      <c r="G283" t="b">
-        <v>0</v>
-      </c>
-      <c r="H283">
-        <v>54</v>
-      </c>
       <c r="J283" s="1" t="s">
         <v>462</v>
       </c>
@@ -17604,7 +17556,7 @@
     </row>
     <row r="284" spans="1:17">
       <c r="J284" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K284">
         <v>0.001060188132433084</v>
@@ -17916,7 +17868,7 @@
     </row>
     <row r="296" spans="10:17">
       <c r="J296" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K296">
         <v>0.001060188132433084</v>
@@ -18592,7 +18544,7 @@
     </row>
     <row r="322" spans="10:17">
       <c r="J322" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K322">
         <v>0.0009181498554778313</v>
@@ -18774,7 +18726,7 @@
     </row>
     <row r="329" spans="10:17">
       <c r="J329" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K329">
         <v>0.0009181498554778313</v>
@@ -18826,7 +18778,7 @@
     </row>
     <row r="331" spans="10:17">
       <c r="J331" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K331">
         <v>0.0009181498554778313</v>
@@ -18930,7 +18882,7 @@
     </row>
     <row r="335" spans="10:17">
       <c r="J335" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K335">
         <v>0.0009181498554778313</v>
@@ -19086,7 +19038,7 @@
     </row>
     <row r="341" spans="10:17">
       <c r="J341" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K341">
         <v>0.0009181498554778313</v>
@@ -19346,7 +19298,7 @@
     </row>
     <row r="351" spans="10:17">
       <c r="J351" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K351">
         <v>0.0009181498554778313</v>
@@ -19398,7 +19350,7 @@
     </row>
     <row r="353" spans="10:17">
       <c r="J353" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K353">
         <v>0.0009181498554778313</v>
@@ -19424,7 +19376,7 @@
     </row>
     <row r="354" spans="10:17">
       <c r="J354" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K354">
         <v>0.0009181498554778313</v>
@@ -20516,7 +20468,7 @@
     </row>
     <row r="396" spans="10:17">
       <c r="J396" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K396">
         <v>0.0007496662177769351</v>
@@ -21062,7 +21014,7 @@
     </row>
     <row r="417" spans="10:17">
       <c r="J417" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K417">
         <v>0.0007496662177769351</v>
@@ -21140,7 +21092,7 @@
     </row>
     <row r="420" spans="10:17">
       <c r="J420" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K420">
         <v>0.0007496662177769351</v>
@@ -21244,7 +21196,7 @@
     </row>
     <row r="424" spans="10:17">
       <c r="J424" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K424">
         <v>0.0007496662177769351</v>
@@ -22362,7 +22314,7 @@
     </row>
     <row r="467" spans="10:17">
       <c r="J467" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K467">
         <v>0.0007496662177769351</v>
@@ -22440,7 +22392,7 @@
     </row>
     <row r="470" spans="10:17">
       <c r="J470" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K470">
         <v>0.0007496662177769351</v>
@@ -22778,7 +22730,7 @@
     </row>
     <row r="483" spans="10:17">
       <c r="J483" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K483">
         <v>0.0007496662177769351</v>
@@ -22856,7 +22808,7 @@
     </row>
     <row r="486" spans="10:17">
       <c r="J486" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K486">
         <v>0.0007496662177769351</v>
@@ -23272,7 +23224,7 @@
     </row>
     <row r="502" spans="10:17">
       <c r="J502" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K502">
         <v>0.0007496662177769351</v>
@@ -23610,7 +23562,7 @@
     </row>
     <row r="515" spans="10:17">
       <c r="J515" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K515">
         <v>0.0007496662177769351</v>
@@ -24000,7 +23952,7 @@
     </row>
     <row r="530" spans="10:17">
       <c r="J530" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K530">
         <v>0.0007496662177769351</v>
@@ -24442,7 +24394,7 @@
     </row>
     <row r="547" spans="10:17">
       <c r="J547" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K547">
         <v>0.000530094066216542</v>
@@ -24546,7 +24498,7 @@
     </row>
     <row r="551" spans="10:17">
       <c r="J551" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K551">
         <v>0.000530094066216542</v>
@@ -26626,7 +26578,7 @@
     </row>
     <row r="631" spans="10:17">
       <c r="J631" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K631">
         <v>0.000530094066216542</v>
@@ -27302,7 +27254,7 @@
     </row>
     <row r="657" spans="10:17">
       <c r="J657" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K657">
         <v>0.000530094066216542</v>
@@ -27562,7 +27514,7 @@
     </row>
     <row r="667" spans="10:17">
       <c r="J667" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K667">
         <v>0.000530094066216542</v>
@@ -27822,7 +27774,7 @@
     </row>
     <row r="677" spans="10:17">
       <c r="J677" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K677">
         <v>0.000530094066216542</v>
@@ -28524,7 +28476,7 @@
     </row>
     <row r="704" spans="10:17">
       <c r="J704" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K704">
         <v>0.000530094066216542</v>
@@ -28940,7 +28892,7 @@
     </row>
     <row r="720" spans="10:17">
       <c r="J720" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K720">
         <v>0.000530094066216542</v>
@@ -29304,7 +29256,7 @@
     </row>
     <row r="734" spans="10:17">
       <c r="J734" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K734">
         <v>0.000530094066216542</v>
@@ -29642,7 +29594,7 @@
     </row>
     <row r="747" spans="10:17">
       <c r="J747" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K747">
         <v>0.000530094066216542</v>
@@ -30136,7 +30088,7 @@
     </row>
     <row r="766" spans="10:17">
       <c r="J766" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K766">
         <v>0.000530094066216542</v>
@@ -30838,7 +30790,7 @@
     </row>
     <row r="793" spans="10:17">
       <c r="J793" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K793">
         <v>0.000530094066216542</v>
@@ -31254,7 +31206,7 @@
     </row>
     <row r="809" spans="10:17">
       <c r="J809" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K809">
         <v>0.000530094066216542</v>
@@ -31384,7 +31336,7 @@
     </row>
     <row r="814" spans="10:17">
       <c r="J814" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K814">
         <v>0.000530094066216542</v>
@@ -31644,7 +31596,7 @@
     </row>
     <row r="824" spans="10:17">
       <c r="J824" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K824">
         <v>0.000530094066216542</v>
@@ -31878,7 +31830,7 @@
     </row>
     <row r="833" spans="10:17">
       <c r="J833" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K833">
         <v>0.000530094066216542</v>
@@ -32112,7 +32064,7 @@
     </row>
     <row r="842" spans="10:17">
       <c r="J842" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K842">
         <v>0.000530094066216542</v>
@@ -33594,7 +33546,7 @@
     </row>
     <row r="899" spans="10:17">
       <c r="J899" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K899">
         <v>0.000530094066216542</v>
